--- a/Jogos_da_Semana_FlashScore_2025-03-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:AS18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,201 @@
           <t>Away</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_H_FT</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_D_FT</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_A_FT</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_H_HT</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_D_HT</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_A_HT</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over05_FT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_FT</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over15_FT</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under15_FT</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over25_FT</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under25_FT</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over35_FT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under35_FT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over05_HT</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_HT</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_Yes</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_No</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-0</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-0</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-0</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-2</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-0</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over2_FT</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under2_FT</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over3_FT</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under3_FT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,6 +691,115 @@
           <t>Osasuna</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -528,6 +832,123 @@
           <t>Union de Santa Fe</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,6 +981,123 @@
           <t>Estudiantes L.P.</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -592,6 +1130,123 @@
           <t>Racing Club</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>401</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -624,6 +1279,123 @@
           <t>Palestino</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -656,6 +1428,123 @@
           <t>U. De Chile</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -688,6 +1577,123 @@
           <t>Llaneros</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -720,6 +1726,123 @@
           <t>Chico</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -752,6 +1875,119 @@
           <t>Stevenage</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -784,6 +2020,119 @@
           <t>Sportivo Trinidense</t>
         </is>
       </c>
+      <c r="G11" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -816,6 +2165,123 @@
           <t>Grau</t>
         </is>
       </c>
+      <c r="G12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -848,6 +2314,123 @@
           <t>FBC Melgar</t>
         </is>
       </c>
+      <c r="G13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -880,6 +2463,119 @@
           <t>Defensor Sp.</t>
         </is>
       </c>
+      <c r="G14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -912,6 +2608,115 @@
           <t>Penarol</t>
         </is>
       </c>
+      <c r="G15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -944,6 +2749,115 @@
           <t>Progreso</t>
         </is>
       </c>
+      <c r="G16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -976,6 +2890,119 @@
           <t>CA Cerro</t>
         </is>
       </c>
+      <c r="G17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S17" t="n">
+        <v>7</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1008,6 +3035,115 @@
           <t>Caracas</t>
         </is>
       </c>
+      <c r="G18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS18"/>
+  <dimension ref="A1:AS19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -776,7 +776,7 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -833,22 +833,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
         <v>4.33</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -923,7 +923,7 @@
         <v>5.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL3" t="n">
         <v>11</v>
@@ -1033,7 +1033,7 @@
         <v>2.1</v>
       </c>
       <c r="X4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1179,10 +1179,10 @@
         <v>2.5</v>
       </c>
       <c r="W5" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="X5" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y5" t="n">
         <v>8</v>
@@ -1477,7 +1477,7 @@
         <v>3</v>
       </c>
       <c r="W7" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="X7" t="n">
         <v>2</v>
@@ -1596,10 +1596,10 @@
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1608,10 +1608,10 @@
         <v>3.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R8" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S8" t="n">
         <v>3.75</v>
@@ -1629,7 +1629,7 @@
         <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y8" t="n">
         <v>5.5</v>
@@ -1847,7 +1847,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>v14Pq79D</t>
+          <t>hniVrGwe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1857,142 +1857,134 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Huila</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>2.37</v>
       </c>
       <c r="K10" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE10" t="n">
         <v>8</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AF10" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AG10" t="n">
         <v>19</v>
       </c>
       <c r="AH10" t="n">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="AI10" t="n">
-        <v>501</v>
+        <v>800</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AO10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>2</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8UNm9SdB</t>
+          <t>v14Pq79D</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2002,41 +1994,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L11" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2045,82 +2037,82 @@
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W11" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="X11" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE11" t="n">
         <v>7.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>501</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK11" t="n">
         <v>15</v>
       </c>
-      <c r="AH11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>301</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>13</v>
-      </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
         <v>29</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>26</v>
       </c>
       <c r="AO11" t="n">
         <v>41</v>
@@ -2129,7 +2121,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2137,7 +2129,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2Faf3Gn3</t>
+          <t>8UNm9SdB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2147,41 +2139,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2190,10 +2182,10 @@
         <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
         <v>2.25</v>
@@ -2214,79 +2206,75 @@
         <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>15</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>17</v>
       </c>
       <c r="AH12" t="n">
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AM12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>1.4</v>
-      </c>
+        <v>1.98</v>
+      </c>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KWcQSZAj</t>
+          <t>2Faf3Gn3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2296,7 +2284,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2306,91 +2294,91 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ayacucho</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.56</v>
+        <v>2.25</v>
       </c>
       <c r="J13" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="S13" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="T13" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AD13" t="n">
         <v>41</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AG13" t="n">
         <v>17</v>
@@ -2399,43 +2387,43 @@
         <v>51</v>
       </c>
       <c r="AI13" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ13" t="n">
         <v>7</v>
       </c>
       <c r="AK13" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AL13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="AR13" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WI1Kp2wA</t>
+          <t>KWcQSZAj</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2445,142 +2433,146 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Ayacucho</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="U14" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="V14" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="W14" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="X14" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="Y14" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC14" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AD14" t="n">
         <v>41</v>
       </c>
       <c r="AE14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF14" t="n">
         <v>7.5</v>
       </c>
-      <c r="AF14" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK14" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
+        <v>2.46</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bXH0QXie</t>
+          <t>WI1Kp2wA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2590,7 +2582,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2600,97 +2592,97 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Juventud</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.54</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L15" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
         <v>11</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>15</v>
-      </c>
       <c r="AB15" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AD15" t="n">
         <v>41</v>
       </c>
       <c r="AE15" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AG15" t="n">
         <v>19</v>
       </c>
       <c r="AH15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI15" t="n">
         <v>351</v>
@@ -2699,29 +2691,33 @@
         <v>6.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AM15" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>2</v>
+      </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>46QPOKGj</t>
+          <t>bXH0QXie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2731,7 +2727,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2741,118 +2737,118 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Juventud</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>1.57</v>
       </c>
       <c r="J16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V16" t="n">
         <v>2.75</v>
       </c>
-      <c r="K16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.5</v>
-      </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X16" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.5</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AC16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG16" t="n">
         <v>19</v>
       </c>
-      <c r="AD16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>17</v>
-      </c>
       <c r="AH16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="n">
         <v>351</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="AL16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN16" t="n">
         <v>13</v>
       </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>34</v>
-      </c>
       <c r="AO16" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2862,7 +2858,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>p23CnO8c</t>
+          <t>46QPOKGj</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2872,7 +2868,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2882,132 +2878,128 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S17" t="n">
         <v>4</v>
       </c>
-      <c r="K17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="T17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2</v>
+      </c>
+      <c r="X17" t="n">
         <v>1.73</v>
       </c>
-      <c r="P17" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S17" t="n">
-        <v>7</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.41</v>
-      </c>
       <c r="Y17" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AB17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD17" t="n">
         <v>34</v>
       </c>
-      <c r="AC17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>51</v>
-      </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AF17" t="n">
         <v>6.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AI17" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AJ17" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
         <v>34</v>
       </c>
       <c r="AO17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1.9</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>v5GLAZ87</t>
+          <t>p23CnO8c</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3017,133 +3009,278 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Yaracuyanos</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.45</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.07</v>
+        <v>2.6</v>
       </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L18" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N18" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.45</v>
+        <v>1.73</v>
       </c>
       <c r="P18" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.32</v>
+        <v>3.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>3.95</v>
+        <v>8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="V18" t="n">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="W18" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="X18" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.9</v>
+        <v>5.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
         <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AD18" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AE18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AH18" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AI18" t="n">
         <v>101</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AL18" t="n">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="AM18" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1.9</v>
+      </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>v5GLAZ87</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>27/03/2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Yaracuyanos</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS19"/>
+  <dimension ref="A1:AS18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H2" t="n">
         <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
         <v>1.1</v>
@@ -722,10 +722,10 @@
         <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S2" t="n">
         <v>1.91</v>
@@ -740,10 +740,10 @@
         <v>4.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -752,25 +752,25 @@
         <v>8</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
         <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG2" t="n">
         <v>23</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>21</v>
       </c>
       <c r="AH2" t="n">
         <v>51</v>
@@ -788,10 +788,10 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO2" t="n">
         <v>51</v>
@@ -833,22 +833,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="J3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -863,10 +863,10 @@
         <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>6</v>
@@ -875,37 +875,37 @@
         <v>1.13</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD3" t="n">
         <v>41</v>
       </c>
-      <c r="AC3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>51</v>
-      </c>
       <c r="AE3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF3" t="n">
         <v>6</v>
@@ -920,16 +920,16 @@
         <v>501</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL3" t="n">
         <v>11</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
         <v>26</v>
@@ -1161,16 +1161,16 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U5" t="n">
         <v>1.5</v>
@@ -1304,16 +1304,16 @@
         <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
         <v>3.25</v>
@@ -1322,16 +1322,16 @@
         <v>1.33</v>
       </c>
       <c r="U6" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V6" t="n">
         <v>2.75</v>
       </c>
       <c r="W6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y6" t="n">
         <v>7</v>
@@ -1385,16 +1385,16 @@
         <v>41</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="7">
@@ -1608,10 +1608,10 @@
         <v>3.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S8" t="n">
         <v>3.75</v>
@@ -1736,7 +1736,7 @@
         <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="K9" t="n">
         <v>2.4</v>
@@ -1847,7 +1847,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hniVrGwe</t>
+          <t>v14Pq79D</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1857,134 +1857,142 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Huila</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.37</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="L10" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.5</v>
+      </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.07</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
         <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AD10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AI10" t="n">
-        <v>800</v>
+        <v>451</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10.25</v>
+        <v>7.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>2.05</v>
+      </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>v14Pq79D</t>
+          <t>8UNm9SdB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1994,41 +2002,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2037,82 +2045,82 @@
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W11" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="X11" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE11" t="n">
         <v>7.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
         <v>41</v>
@@ -2121,7 +2129,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2129,7 +2137,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8UNm9SdB</t>
+          <t>2Faf3Gn3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2139,41 +2147,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2182,22 +2190,22 @@
         <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U12" t="n">
         <v>1.5</v>
@@ -2206,75 +2214,79 @@
         <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
         <v>12</v>
       </c>
-      <c r="AA12" t="n">
-        <v>11</v>
-      </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AK12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AL12" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
+        <v>2.42</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2Faf3Gn3</t>
+          <t>KWcQSZAj</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2284,7 +2296,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2294,61 +2306,61 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Ayacucho</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.25</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2</v>
-      </c>
       <c r="L13" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.4</v>
       </c>
-      <c r="P13" t="n">
+      <c r="V13" t="n">
         <v>2.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.5</v>
       </c>
       <c r="W13" t="n">
         <v>1.91</v>
@@ -2357,28 +2369,28 @@
         <v>1.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AD13" t="n">
         <v>41</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AG13" t="n">
         <v>17</v>
@@ -2387,43 +2399,43 @@
         <v>51</v>
       </c>
       <c r="AI13" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ13" t="n">
         <v>7</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AR13" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KWcQSZAj</t>
+          <t>WI1Kp2wA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2433,146 +2445,142 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ayacucho</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.75</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="J14" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L14" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="n">
         <v>11</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>17</v>
-      </c>
       <c r="AB14" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AD14" t="n">
         <v>41</v>
       </c>
       <c r="AE14" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI14" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>1.41</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WI1Kp2wA</t>
+          <t>bXH0QXie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2582,7 +2590,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2592,97 +2600,97 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Juventud</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.88</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S15" t="n">
         <v>3.4</v>
       </c>
-      <c r="I15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
       <c r="T15" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="U15" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="V15" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="W15" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="X15" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB15" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC15" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AD15" t="n">
         <v>41</v>
       </c>
       <c r="AE15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF15" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>6.5</v>
       </c>
       <c r="AG15" t="n">
         <v>19</v>
       </c>
       <c r="AH15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI15" t="n">
         <v>351</v>
@@ -2691,33 +2699,29 @@
         <v>6.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AM15" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>2</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>bXH0QXie</t>
+          <t>46QPOKGj</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2727,7 +2731,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2737,118 +2741,118 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Juventud</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L16" t="n">
         <v>4.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2.2</v>
       </c>
-      <c r="L16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>11</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.89</v>
-      </c>
       <c r="R16" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="U16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="V16" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AB16" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI16" t="n">
         <v>351</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AK16" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AM16" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2858,7 +2862,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>46QPOKGj</t>
+          <t>p23CnO8c</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2868,7 +2872,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2878,128 +2882,132 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S17" t="n">
+        <v>8</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V17" t="n">
         <v>2.05</v>
       </c>
-      <c r="L17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N17" t="n">
-        <v>9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.5</v>
-      </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="X17" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AD17" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AE17" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
         <v>6.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AH17" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AI17" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN17" t="n">
         <v>34</v>
       </c>
       <c r="AO17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1.9</v>
+      </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>p23CnO8c</t>
+          <t>v5GLAZ87</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3009,278 +3017,133 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Yaracuyanos</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>4.35</v>
       </c>
       <c r="K18" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L18" t="n">
-        <v>3.75</v>
+        <v>2.65</v>
       </c>
       <c r="M18" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.4</v>
+        <v>2.27</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="S18" t="n">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="V18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W18" t="n">
         <v>2.05</v>
       </c>
-      <c r="W18" t="n">
-        <v>2.63</v>
-      </c>
       <c r="X18" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AA18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AC18" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AD18" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AE18" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AI18" t="n">
         <v>101</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AK18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AL18" t="n">
-        <v>12</v>
+        <v>9.25</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="AN18" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1.9</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>v5GLAZ87</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>27/03/2025</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Yaracuyanos</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Caracas</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-27.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K2" t="n">
         <v>3.1</v>
       </c>
       <c r="L2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
@@ -728,16 +728,16 @@
         <v>3.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="V2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="W2" t="n">
         <v>1.8</v>
@@ -746,7 +746,7 @@
         <v>1.95</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>8</v>
@@ -779,13 +779,13 @@
         <v>201</v>
       </c>
       <c r="AJ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL2" t="n">
         <v>34</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>151</v>
@@ -982,28 +982,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1012,10 +1012,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1024,10 +1024,10 @@
         <v>1.17</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W4" t="n">
         <v>2.1</v>
@@ -1036,13 +1036,13 @@
         <v>1.67</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>51</v>
@@ -1054,10 +1054,10 @@
         <v>51</v>
       </c>
       <c r="AE4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF4" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>6</v>
       </c>
       <c r="AG4" t="n">
         <v>19</v>
@@ -1072,25 +1072,25 @@
         <v>5.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN4" t="n">
         <v>17</v>
       </c>
-      <c r="AN4" t="n">
-        <v>19</v>
-      </c>
       <c r="AO4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AR4" t="n">
         <v>3.55</v>
@@ -1137,7 +1137,7 @@
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J5" t="n">
         <v>3.75</v>
@@ -1146,13 +1146,13 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1188,7 +1188,7 @@
         <v>8</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>11</v>
@@ -1197,7 +1197,7 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
@@ -1221,13 +1221,13 @@
         <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL5" t="n">
         <v>9.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
         <v>21</v>
@@ -1280,28 +1280,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1310,22 +1310,22 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U6" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="V6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W6" t="n">
         <v>1.83</v>
@@ -1343,10 +1343,10 @@
         <v>8.5</v>
       </c>
       <c r="AB6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC6" t="n">
         <v>13</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>15</v>
       </c>
       <c r="AD6" t="n">
         <v>26</v>
@@ -1355,7 +1355,7 @@
         <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG6" t="n">
         <v>17</v>
@@ -1370,7 +1370,7 @@
         <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>15</v>
@@ -1385,16 +1385,16 @@
         <v>41</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="7">
@@ -1578,13 +1578,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
         <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>2.1</v>
@@ -1635,13 +1635,13 @@
         <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC8" t="n">
         <v>15</v>
@@ -1659,7 +1659,7 @@
         <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI8" t="n">
         <v>351</v>
@@ -1671,7 +1671,7 @@
         <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
         <v>81</v>
@@ -1680,13 +1680,13 @@
         <v>51</v>
       </c>
       <c r="AO8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.43</v>
+        <v>2.42</v>
       </c>
       <c r="AR8" t="n">
         <v>2.9</v>
@@ -1879,16 +1879,16 @@
         <v>2.35</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
         <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>
@@ -1897,25 +1897,25 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T10" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U10" t="n">
         <v>1.53</v>
@@ -1963,7 +1963,7 @@
         <v>451</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -1981,10 +1981,10 @@
         <v>41</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H11" t="n">
         <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2075,7 +2075,7 @@
         <v>1.83</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
         <v>12</v>
@@ -2108,7 +2108,7 @@
         <v>301</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK11" t="n">
         <v>13</v>
@@ -2120,7 +2120,7 @@
         <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
         <v>41</v>
@@ -2318,7 +2318,7 @@
         <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
         <v>1.57</v>
@@ -2339,40 +2339,40 @@
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA13" t="n">
         <v>17</v>
@@ -2399,7 +2399,7 @@
         <v>51</v>
       </c>
       <c r="AI13" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ13" t="n">
         <v>7</v>
@@ -2633,22 +2633,22 @@
         <v>11</v>
       </c>
       <c r="O15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.3</v>
       </c>
       <c r="U15" t="n">
         <v>1.4</v>
@@ -2750,22 +2750,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K16" t="n">
         <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -2774,16 +2774,16 @@
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
@@ -2804,7 +2804,7 @@
         <v>1.73</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z16" t="n">
         <v>8.5</v>
@@ -2816,13 +2816,13 @@
         <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD16" t="n">
         <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF16" t="n">
         <v>6.5</v>
@@ -2837,10 +2837,10 @@
         <v>351</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>13</v>
@@ -2894,10 +2894,10 @@
         <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -2909,49 +2909,49 @@
         <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R17" t="n">
         <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="U17" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z17" t="n">
         <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB17" t="n">
         <v>34</v>
@@ -2963,16 +2963,16 @@
         <v>51</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF17" t="n">
         <v>6.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI17" t="n">
         <v>101</v>
@@ -2987,10 +2987,10 @@
         <v>12</v>
       </c>
       <c r="AM17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN17" t="n">
         <v>29</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>34</v>
       </c>
       <c r="AO17" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS18"/>
+  <dimension ref="A1:AS19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1152,7 +1152,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1596,10 +1596,10 @@
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1608,10 +1608,10 @@
         <v>3.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
         <v>3.75</v>
@@ -1847,7 +1847,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>v14Pq79D</t>
+          <t>hniVrGwe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1857,142 +1857,134 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Huila</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8</v>
-      </c>
+        <v>4.85</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="R10" t="n">
         <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>4.33</v>
+        <v>3.45</v>
       </c>
       <c r="T10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X10" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>10</v>
+        <v>7.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="AI10" t="n">
-        <v>451</v>
+        <v>800</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="AK10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL10" t="n">
         <v>15</v>
       </c>
-      <c r="AL10" t="n">
-        <v>12</v>
-      </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AO10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>2.1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8UNm9SdB</t>
+          <t>v14Pq79D</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2002,47 +1994,47 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2051,43 +2043,43 @@
         <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W11" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="Y11" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD11" t="n">
         <v>34</v>
@@ -2096,40 +2088,40 @@
         <v>7.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI11" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AJ11" t="n">
         <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
         <v>29</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>23</v>
       </c>
       <c r="AO11" t="n">
         <v>41</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2137,7 +2129,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2Faf3Gn3</t>
+          <t>8UNm9SdB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2147,47 +2139,47 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2196,16 +2188,16 @@
         <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U12" t="n">
         <v>1.5</v>
@@ -2214,79 +2206,75 @@
         <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>15</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>17</v>
       </c>
       <c r="AH12" t="n">
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AM12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
         <v>34</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>1.4</v>
-      </c>
+        <v>1.98</v>
+      </c>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KWcQSZAj</t>
+          <t>2Faf3Gn3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2296,7 +2284,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2306,91 +2294,91 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ayacucho</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.75</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5.5</v>
-      </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="T13" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
         <v>15</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
         <v>29</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>41</v>
       </c>
       <c r="AD13" t="n">
         <v>41</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AG13" t="n">
         <v>17</v>
@@ -2399,43 +2387,43 @@
         <v>51</v>
       </c>
       <c r="AI13" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AJ13" t="n">
         <v>7</v>
       </c>
       <c r="AK13" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AL13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="AR13" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WI1Kp2wA</t>
+          <t>KWcQSZAj</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2445,142 +2433,146 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Ayacucho</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="U14" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="V14" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="W14" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="X14" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="Y14" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC14" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AD14" t="n">
         <v>41</v>
       </c>
       <c r="AE14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF14" t="n">
         <v>7.5</v>
       </c>
-      <c r="AF14" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK14" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
+        <v>2.46</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bXH0QXie</t>
+          <t>WI1Kp2wA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2590,7 +2582,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2600,97 +2592,97 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Juventud</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>2.88</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L15" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
         <v>11</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>15</v>
-      </c>
       <c r="AB15" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AD15" t="n">
         <v>41</v>
       </c>
       <c r="AE15" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG15" t="n">
         <v>19</v>
       </c>
       <c r="AH15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI15" t="n">
         <v>351</v>
@@ -2699,29 +2691,33 @@
         <v>6.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AM15" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>2</v>
+      </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>46QPOKGj</t>
+          <t>bXH0QXie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2731,7 +2727,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2741,118 +2737,118 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Juventud</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.91</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2</v>
-      </c>
       <c r="X16" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AC16" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AD16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="n">
         <v>351</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="AL16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM16" t="n">
         <v>13</v>
       </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
       <c r="AN16" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2862,7 +2858,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>p23CnO8c</t>
+          <t>46QPOKGj</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2872,7 +2868,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2882,132 +2878,128 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>1.91</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S17" t="n">
         <v>4</v>
       </c>
-      <c r="K17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S17" t="n">
-        <v>7</v>
-      </c>
       <c r="T17" t="n">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="U17" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="V17" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="W17" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="Y17" t="n">
         <v>6</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AB17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD17" t="n">
         <v>34</v>
       </c>
-      <c r="AC17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>51</v>
-      </c>
       <c r="AE17" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AF17" t="n">
         <v>6.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AI17" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AJ17" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1.9</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>v5GLAZ87</t>
+          <t>p23CnO8c</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3017,133 +3009,278 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Yaracuyanos</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="J18" t="n">
-        <v>4.35</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L18" t="n">
-        <v>2.65</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S18" t="n">
+        <v>7</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.1</v>
       </c>
-      <c r="N18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="R18" t="n">
+      <c r="U18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X18" t="n">
         <v>1.5</v>
       </c>
-      <c r="S18" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.6</v>
-      </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="Z18" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AA18" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AB18" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AD18" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AE18" t="n">
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AH18" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="AI18" t="n">
         <v>101</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AL18" t="n">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="AM18" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1.9</v>
+      </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>v5GLAZ87</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>27/03/2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Yaracuyanos</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-27.xlsx
@@ -1459,10 +1459,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R7" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S7" t="n">
         <v>3</v>
@@ -1540,7 +1540,7 @@
         <v>2.95</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="AS7" t="n">
         <v>1.57</v>
@@ -1578,28 +1578,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1638,7 +1638,7 @@
         <v>6.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB8" t="n">
         <v>10</v>
@@ -1650,7 +1650,7 @@
         <v>34</v>
       </c>
       <c r="AE8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>7.5</v>
@@ -1683,16 +1683,16 @@
         <v>51</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="9">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H9" t="n">
         <v>5.25</v>
@@ -1745,10 +1745,10 @@
         <v>11</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -1775,13 +1775,13 @@
         <v>3</v>
       </c>
       <c r="W9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z9" t="n">
         <v>5.5</v>
@@ -1802,7 +1802,7 @@
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
         <v>29</v>
@@ -1823,7 +1823,7 @@
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN9" t="n">
         <v>101</v>
@@ -1879,30 +1879,30 @@
         <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K10" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R10" t="n">
         <v>1.6</v>
@@ -1914,10 +1914,10 @@
         <v>1.22</v>
       </c>
       <c r="U10" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="V10" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="W10" t="n">
         <v>1.98</v>
@@ -1944,10 +1944,10 @@
         <v>35</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AG10" t="n">
         <v>18.5</v>
@@ -1968,7 +1968,7 @@
         <v>15</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
         <v>50</v>
@@ -2158,28 +2158,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="H12" t="n">
         <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2188,16 +2188,16 @@
         <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U12" t="n">
         <v>1.5</v>
@@ -2206,31 +2206,31 @@
         <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD12" t="n">
         <v>34</v>
       </c>
       <c r="AE12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
         <v>5.5</v>
@@ -2242,25 +2242,25 @@
         <v>51</v>
       </c>
       <c r="AI12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
         <v>29</v>
       </c>
-      <c r="AN12" t="n">
-        <v>23</v>
-      </c>
       <c r="AO12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP12" t="n">
         <v>1.83</v>
@@ -3061,7 +3061,7 @@
         <v>3.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS19"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,182 +481,137 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Odd_H_HT</t>
+          <t>Odd_Over05_FT</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Odd_D_HT</t>
+          <t>Odd_Under05_FT</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Odd_A_HT</t>
+          <t>Odd_Over15_FT</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Odd_Over05_FT</t>
+          <t>Odd_Under15_FT</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Odd_Under05_FT</t>
+          <t>Odd_Over25_FT</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Odd_Over15_FT</t>
+          <t>Odd_Under25_FT</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Odd_Under15_FT</t>
+          <t>Odd_Over05_HT</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Odd_Over25_FT</t>
+          <t>Odd_Under05_HT</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Odd_Under25_FT</t>
+          <t>Odd_BTTS_Yes</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Odd_Over35_FT</t>
+          <t>Odd_BTTS_No</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Odd_Under35_FT</t>
+          <t>Odd_CS_1-0</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Odd_Over05_HT</t>
+          <t>Odd_CS_2-0</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Odd_Under05_HT</t>
+          <t>Odd_CS_2-1</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Odd_BTTS_Yes</t>
+          <t>Odd_CS_3-0</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Odd_BTTS_No</t>
+          <t>Odd_CS_3-1</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_1-0</t>
+          <t>Odd_CS_3-2</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_2-0</t>
+          <t>Odd_CS_0-0</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_2-1</t>
+          <t>Odd_CS_1-1</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_3-0</t>
+          <t>Odd_CS_2-2</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_3-1</t>
+          <t>Odd_CS_3-3</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_3-2</t>
+          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_0-0</t>
+          <t>Odd_CS_0-1</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_1-1</t>
+          <t>Odd_CS_0-2</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_2-2</t>
+          <t>Odd_CS_1-2</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_3-3</t>
+          <t>Odd_CS_0-3</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_4-4</t>
+          <t>Odd_CS_1-3</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over2_FT</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under2_FT</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over3_FT</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under3_FT</t>
         </is>
       </c>
     </row>
@@ -701,105 +656,86 @@
         <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>9.5</v>
+        <v>1.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T2" t="n">
+        <v>12</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V2" t="n">
+        <v>10</v>
+      </c>
+      <c r="W2" t="n">
+        <v>8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="n">
         <v>26</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="V2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>8</v>
-      </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AH2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>51</v>
       </c>
-      <c r="AI2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -842,112 +778,85 @@
         <v>2.63</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>1.13</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>3.5</v>
+        <v>1.57</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>2.25</v>
       </c>
       <c r="N3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>13</v>
+      </c>
+      <c r="V3" t="n">
+        <v>12</v>
+      </c>
+      <c r="W3" t="n">
+        <v>34</v>
+      </c>
+      <c r="X3" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z3" t="n">
         <v>6</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="AA3" t="n">
         <v>6</v>
       </c>
-      <c r="T3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>12</v>
-      </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="n">
-        <v>41</v>
+        <v>501</v>
       </c>
       <c r="AE3" t="n">
         <v>6</v>
       </c>
       <c r="AF3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>501</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO3" t="n">
         <v>41</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>1.18</v>
       </c>
     </row>
     <row r="4">
@@ -991,112 +900,85 @@
         <v>1.85</v>
       </c>
       <c r="J4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U4" t="n">
+        <v>23</v>
+      </c>
+      <c r="V4" t="n">
+        <v>17</v>
+      </c>
+      <c r="W4" t="n">
+        <v>51</v>
+      </c>
+      <c r="X4" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE4" t="n">
         <v>5.5</v>
       </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AF4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI4" t="n">
         <v>17</v>
       </c>
-      <c r="AB4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>501</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO4" t="n">
         <v>34</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>1.3</v>
       </c>
     </row>
     <row r="5">
@@ -1140,112 +1022,85 @@
         <v>2.35</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>1.07</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L5" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>2.75</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.22</v>
+        <v>8</v>
       </c>
       <c r="U5" t="n">
-        <v>1.5</v>
+        <v>13</v>
       </c>
       <c r="V5" t="n">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="W5" t="n">
-        <v>1.95</v>
+        <v>34</v>
       </c>
       <c r="X5" t="n">
-        <v>1.8</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>401</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF5" t="n">
         <v>11</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AG5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>401</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1.3</v>
       </c>
     </row>
     <row r="6">
@@ -1289,112 +1144,85 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
+        <v>1.04</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>13</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>3.75</v>
       </c>
       <c r="N6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7</v>
+      </c>
+      <c r="U6" t="n">
+        <v>8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>12</v>
+      </c>
+      <c r="X6" t="n">
         <v>13</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.83</v>
-      </c>
       <c r="Y6" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE6" t="n">
         <v>13</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AF6" t="n">
         <v>26</v>
       </c>
-      <c r="AE6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
       </c>
       <c r="AI6" t="n">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN6" t="n">
         <v>41</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1.54</v>
       </c>
     </row>
     <row r="7">
@@ -1429,121 +1257,94 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="J7" t="n">
-        <v>4.33</v>
+        <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>12</v>
       </c>
       <c r="L7" t="n">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>3.75</v>
       </c>
       <c r="N7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
         <v>13</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.36</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.36</v>
+        <v>23</v>
       </c>
       <c r="V7" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="W7" t="n">
-        <v>1.73</v>
+        <v>41</v>
       </c>
       <c r="X7" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
         <v>13</v>
       </c>
-      <c r="Z7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>201</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO7" t="n">
         <v>23</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>1.57</v>
       </c>
     </row>
     <row r="8">
@@ -1578,82 +1379,82 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>9</v>
+      </c>
+      <c r="W8" t="n">
+        <v>11</v>
+      </c>
+      <c r="X8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA8" t="n">
         <v>7</v>
       </c>
-      <c r="J8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>9</v>
-      </c>
       <c r="AB8" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
         <v>34</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>7.5</v>
       </c>
       <c r="AG8" t="n">
         <v>21</v>
@@ -1662,37 +1463,10 @@
         <v>67</v>
       </c>
       <c r="AI8" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN8" t="n">
         <v>51</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>1.38</v>
       </c>
     </row>
     <row r="9">
@@ -1727,7 +1501,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H9" t="n">
         <v>5.25</v>
@@ -1736,118 +1510,91 @@
         <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>1.73</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
-        <v>11</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>3.75</v>
       </c>
       <c r="N9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V9" t="n">
         <v>10</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3</v>
-      </c>
       <c r="W9" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>1.5</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
         <v>10</v>
       </c>
       <c r="AB9" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="AD9" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH9" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AI9" t="n">
         <v>101</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN9" t="n">
         <v>101</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>1.53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hniVrGwe</t>
+          <t>v14Pq79D</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1857,134 +1604,119 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Huila</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.75</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.45</v>
-      </c>
       <c r="T10" t="n">
-        <v>1.22</v>
+        <v>6.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="V10" t="n">
-        <v>2.37</v>
+        <v>10</v>
       </c>
       <c r="W10" t="n">
-        <v>1.98</v>
+        <v>21</v>
       </c>
       <c r="X10" t="n">
-        <v>1.65</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.8</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
-        <v>15.5</v>
+        <v>67</v>
       </c>
       <c r="AD10" t="n">
-        <v>35</v>
+        <v>451</v>
       </c>
       <c r="AE10" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.8</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>800</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>v14Pq79D</t>
+          <t>8UNm9SdB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1994,142 +1726,119 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
         <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>2.75</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="S11" t="n">
-        <v>4.33</v>
+        <v>1.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>11</v>
       </c>
       <c r="V11" t="n">
-        <v>2.38</v>
+        <v>10</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="X11" t="n">
-        <v>1.75</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.5</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AD11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
         <v>34</v>
       </c>
-      <c r="AE11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>67</v>
-      </c>
       <c r="AI11" t="n">
-        <v>451</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO11" t="n">
         <v>41</v>
       </c>
-      <c r="AP11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8UNm9SdB</t>
+          <t>2Faf3Gn3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2139,142 +1848,119 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.38</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>1.08</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>2.75</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="S12" t="n">
-        <v>4.33</v>
+        <v>1.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.2</v>
+        <v>8.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="W12" t="n">
-        <v>1.91</v>
+        <v>34</v>
       </c>
       <c r="X12" t="n">
-        <v>1.8</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>34</v>
+        <v>351</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>351</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM12" t="n">
         <v>34</v>
       </c>
-      <c r="AN12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2Faf3Gn3</t>
+          <t>KWcQSZAj</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2284,7 +1970,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2294,136 +1980,109 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Ayacucho</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="J13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M13" t="n">
         <v>3.75</v>
       </c>
-      <c r="K13" t="n">
+      <c r="N13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O13" t="n">
         <v>2</v>
       </c>
-      <c r="L13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N13" t="n">
-        <v>8</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.4</v>
-      </c>
       <c r="P13" t="n">
-        <v>2.75</v>
+        <v>1.36</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="n">
-        <v>4.33</v>
+        <v>1.83</v>
       </c>
       <c r="T13" t="n">
-        <v>1.2</v>
+        <v>15</v>
       </c>
       <c r="U13" t="n">
-        <v>1.5</v>
+        <v>29</v>
       </c>
       <c r="V13" t="n">
-        <v>2.5</v>
+        <v>17</v>
       </c>
       <c r="W13" t="n">
-        <v>1.91</v>
+        <v>51</v>
       </c>
       <c r="X13" t="n">
-        <v>1.8</v>
+        <v>41</v>
       </c>
       <c r="Y13" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG13" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA13" t="n">
+      <c r="AH13" t="n">
         <v>12</v>
       </c>
-      <c r="AB13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>51</v>
-      </c>
       <c r="AI13" t="n">
-        <v>351</v>
+        <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>1.4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KWcQSZAj</t>
+          <t>WI1Kp2wA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2433,146 +2092,119 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ayacucho</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="J14" t="n">
-        <v>5.5</v>
+        <v>1.08</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>2.63</v>
       </c>
       <c r="N14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T14" t="n">
+        <v>7</v>
+      </c>
+      <c r="U14" t="n">
+        <v>13</v>
+      </c>
+      <c r="V14" t="n">
         <v>11</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3</v>
-      </c>
       <c r="W14" t="n">
-        <v>1.83</v>
+        <v>34</v>
       </c>
       <c r="X14" t="n">
-        <v>1.83</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>7.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>41</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>1.41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WI1Kp2wA</t>
+          <t>bXH0QXie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2582,7 +2214,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2592,132 +2224,109 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Juventud</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.88</v>
+        <v>4.2</v>
       </c>
       <c r="H15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M15" t="n">
         <v>3.4</v>
       </c>
-      <c r="I15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.08</v>
-      </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.85</v>
       </c>
       <c r="P15" t="n">
-        <v>2.63</v>
+        <v>1.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.17</v>
+        <v>12</v>
       </c>
       <c r="U15" t="n">
-        <v>1.53</v>
+        <v>23</v>
       </c>
       <c r="V15" t="n">
-        <v>2.38</v>
+        <v>15</v>
       </c>
       <c r="W15" t="n">
-        <v>2.1</v>
+        <v>51</v>
       </c>
       <c r="X15" t="n">
-        <v>1.67</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH15" t="n">
         <v>13</v>
       </c>
-      <c r="AA15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="n">
+      <c r="AI15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>29</v>
       </c>
-      <c r="AD15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>bXH0QXie</t>
+          <t>46QPOKGj</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2727,7 +2336,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2737,128 +2346,109 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Juventud</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>1.91</v>
       </c>
       <c r="H16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.8</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.65</v>
       </c>
-      <c r="J16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>11</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.3</v>
-      </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R16" t="n">
         <v>2</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S16" t="n">
-        <v>3.5</v>
+        <v>1.73</v>
       </c>
       <c r="T16" t="n">
-        <v>1.29</v>
+        <v>6</v>
       </c>
       <c r="U16" t="n">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="V16" t="n">
-        <v>2.75</v>
+        <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>1.91</v>
+        <v>17</v>
       </c>
       <c r="X16" t="n">
-        <v>1.8</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AA16" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
         <v>41</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AI16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>41</v>
       </c>
-      <c r="AE16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>46QPOKGj</t>
+          <t>p23CnO8c</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2868,7 +2458,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2878,128 +2468,109 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.91</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
-        <v>2.63</v>
+        <v>1.13</v>
       </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>4.75</v>
+        <v>1.67</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>2.1</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>2.75</v>
+        <v>1.67</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.22</v>
+        <v>6</v>
       </c>
       <c r="U17" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="V17" t="n">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="X17" t="n">
-        <v>1.73</v>
+        <v>34</v>
       </c>
       <c r="Y17" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AD17" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="AE17" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>351</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>p23CnO8c</t>
+          <t>v5GLAZ87</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3009,278 +2580,114 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Yaracuyanos</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="K18" t="n">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="L18" t="n">
-        <v>3.75</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>1.13</v>
+        <v>2.4</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>2.27</v>
       </c>
       <c r="O18" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>2.05</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.1</v>
+        <v>8.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.67</v>
+        <v>18</v>
       </c>
       <c r="V18" t="n">
-        <v>2.1</v>
+        <v>13.5</v>
       </c>
       <c r="W18" t="n">
-        <v>2.5</v>
+        <v>55</v>
       </c>
       <c r="X18" t="n">
-        <v>1.5</v>
+        <v>40</v>
       </c>
       <c r="Y18" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>12</v>
+        <v>6.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="AD18" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AE18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>9.25</v>
       </c>
       <c r="AH18" t="n">
-        <v>101</v>
+        <v>16.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>v5GLAZ87</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>27/03/2025</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Yaracuyanos</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Caracas</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC19" t="n">
         <v>40</v>
       </c>
-      <c r="AD19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-27.xlsx
@@ -1016,43 +1016,43 @@
         <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
         <v>2.35</v>
       </c>
       <c r="J5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N5" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U5" t="n">
         <v>13</v>
@@ -1070,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
         <v>6.5</v>
@@ -1079,19 +1079,19 @@
         <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD5" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF5" t="n">
         <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
         <v>23</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -1278,10 +1278,10 @@
         <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>1.36</v>
@@ -1299,7 +1299,7 @@
         <v>13</v>
       </c>
       <c r="U7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V7" t="n">
         <v>15</v>
@@ -1311,28 +1311,28 @@
         <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
         <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD7" t="n">
         <v>201</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
         <v>8.5</v>
@@ -1341,7 +1341,7 @@
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>23</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H9" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
         <v>1.05</v>
@@ -1522,10 +1522,10 @@
         <v>3.75</v>
       </c>
       <c r="N9" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>1.36</v>
@@ -1534,10 +1534,10 @@
         <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
         <v>6</v>
@@ -1546,16 +1546,16 @@
         <v>5.5</v>
       </c>
       <c r="V9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="n">
         <v>10</v>
@@ -1564,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
         <v>101</v>
@@ -1573,7 +1573,7 @@
         <v>101</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -1585,10 +1585,10 @@
         <v>151</v>
       </c>
       <c r="AI9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -2477,13 +2477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J17" t="n">
         <v>1.13</v>
@@ -2501,7 +2501,7 @@
         <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
         <v>1.67</v>
@@ -2513,7 +2513,7 @@
         <v>2.5</v>
       </c>
       <c r="S17" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T17" t="n">
         <v>6</v>
@@ -2525,7 +2525,7 @@
         <v>12</v>
       </c>
       <c r="W17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X17" t="n">
         <v>34</v>
@@ -2558,7 +2558,7 @@
         <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
         <v>29</v>
